--- a/doc/excel/党建/[sample_memberApply]党员发展信息录入样表.xlsx
+++ b/doc/excel/党建/[sample_memberApply]党员发展信息录入样表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFB6AAA-4B0D-46A4-B392-920CFC664FC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,10 +76,6 @@
   </si>
   <si>
     <t>转正时间</t>
-  </si>
-  <si>
-    <t>当前状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
@@ -135,9 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>申请</t>
-  </si>
-  <si>
     <t>入党积极分子培训起始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,13 +155,21 @@
   </si>
   <si>
     <t>志愿书编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入党申请人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前发展阶段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -620,11 +620,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -662,7 +662,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>1</v>
@@ -671,25 +671,25 @@
         <v>2</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>10</v>
@@ -698,7 +698,7 @@
         <v>11</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>12</v>
@@ -707,30 +707,30 @@
         <v>13</v>
       </c>
       <c r="U1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="9" customFormat="1" ht="33" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="15">
         <v>43358</v>
@@ -749,15 +749,15 @@
       <c r="S2" s="15"/>
       <c r="T2" s="15"/>
       <c r="U2" s="9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{C7835812-BB68-4434-B5F7-A5AFA0AD3EF5}">
-      <formula1>"申请,积极分子,发展对象,列入发展计划,领取志愿书,预备党员,正式党员"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576">
+      <formula1>"入党申请人,入党积极分子,发展对象,列入发展计划,领取志愿书,预备党员,正式党员"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
